--- a/Promytheus/testdata/TestData.xlsx
+++ b/Promytheus/testdata/TestData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
     <sheet name="RegistrationTest" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="RegistrationCheckTest" sheetId="4" r:id="rId3"/>
+    <sheet name="NewTalentTest" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Username</t>
   </si>
@@ -90,6 +91,24 @@
   </si>
   <si>
     <t>Sohdhdhd</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>NewTalentTestData</t>
+  </si>
+  <si>
+    <t>(415) 319-1359</t>
+  </si>
+  <si>
+    <t>RegistrationCheckTest</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -629,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,8 +661,8 @@
     <col min="6" max="6" width="21.21875" customWidth="1"/>
     <col min="7" max="7" width="31.88671875" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -737,14 +756,206 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F66E673-3DB9-4A44-8F04-9FC7FEBFDFC5}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1011999</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6">
+        <v>94111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1011999</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6">
+        <v>94111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="M3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Promytheus/testdata/TestData.xlsx
+++ b/Promytheus/testdata/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Username</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>Oleksandr3323</t>
+  </si>
+  <si>
+    <t>Solonetseewe323232424</t>
+  </si>
+  <si>
+    <t>61 Minerva str</t>
+  </si>
+  <si>
+    <t>SAN FRANCISCO</t>
   </si>
 </sst>
 </file>
@@ -649,7 +661,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -757,10 +769,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F66E673-3DB9-4A44-8F04-9FC7FEBFDFC5}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,11 +782,13 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -808,28 +822,31 @@
       <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6">
         <v>1011999</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>25</v>
@@ -838,13 +855,16 @@
         <v>20</v>
       </c>
       <c r="K2" s="6">
-        <v>94111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>94112</v>
+      </c>
+      <c r="L2" s="6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="3"/>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -858,7 +878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
